--- a/src/assets/excel/员工表.xlsx
+++ b/src/assets/excel/员工表.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,260 +405,47 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>001</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>靑蘘</v>
+        <v>付文兵</v>
       </c>
       <c r="C2" t="str">
         <v>男</v>
       </c>
       <c r="D2" t="str">
-        <v>111111111111111111</v>
+        <v>410521199705086518</v>
       </c>
       <c r="E2" t="str">
-        <v>11111111111</v>
+        <v>13140103864</v>
       </c>
       <c r="F2" t="str">
-        <v>云来</v>
-      </c>
-      <c r="G2" t="str">
-        <v>离职</v>
+        <v>居住地</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>002</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>木蓝</v>
+        <v>付文慧</v>
       </c>
       <c r="C3" t="str">
         <v>女</v>
       </c>
       <c r="D3" t="str">
-        <v>111111111111111112</v>
+        <v>410521199705086518</v>
       </c>
       <c r="E3" t="str">
-        <v>11111111112</v>
+        <v>13140104864</v>
       </c>
       <c r="F3" t="str">
-        <v>希仙</v>
-      </c>
-      <c r="G3" t="str">
-        <v>离职</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>杜若</v>
-      </c>
-      <c r="C4" t="str">
-        <v>男</v>
-      </c>
-      <c r="D4" t="str">
-        <v>111111111111111113</v>
-      </c>
-      <c r="E4" t="str">
-        <v>11111111113</v>
-      </c>
-      <c r="F4" t="str">
-        <v>瞻淇</v>
-      </c>
-      <c r="G4" t="str">
-        <v>离职</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>沉香</v>
-      </c>
-      <c r="C5" t="str">
-        <v>女</v>
-      </c>
-      <c r="D5" t="str">
-        <v>111111111111111114</v>
-      </c>
-      <c r="E5" t="str">
-        <v>11111111114</v>
-      </c>
-      <c r="F5" t="str">
-        <v>雪茶</v>
-      </c>
-      <c r="G5" t="str">
-        <v>离职</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>005</v>
-      </c>
-      <c r="B6" t="str">
-        <v>寄奴</v>
-      </c>
-      <c r="C6" t="str">
-        <v>男</v>
-      </c>
-      <c r="D6" t="str">
-        <v>111111111111111115</v>
-      </c>
-      <c r="E6" t="str">
-        <v>11111111115</v>
-      </c>
-      <c r="F6" t="str">
-        <v>款冬</v>
-      </c>
-      <c r="G6" t="str">
-        <v>在职</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>006</v>
-      </c>
-      <c r="B7" t="str">
-        <v>莲心</v>
-      </c>
-      <c r="C7" t="str">
-        <v>女</v>
-      </c>
-      <c r="D7" t="str">
-        <v>111111111111111116</v>
-      </c>
-      <c r="E7" t="str">
-        <v>11111111116</v>
-      </c>
-      <c r="F7" t="str">
-        <v>茱萸</v>
-      </c>
-      <c r="G7" t="str">
-        <v>在职</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>007</v>
-      </c>
-      <c r="B8" t="str">
-        <v>苍术</v>
-      </c>
-      <c r="C8" t="str">
-        <v>男</v>
-      </c>
-      <c r="D8" t="str">
-        <v>111111111111111117</v>
-      </c>
-      <c r="E8" t="str">
-        <v>11111111117</v>
-      </c>
-      <c r="F8" t="str">
-        <v>柏仁</v>
-      </c>
-      <c r="G8" t="str">
-        <v>在职</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>008</v>
-      </c>
-      <c r="B9" t="str">
-        <v>忍冬</v>
-      </c>
-      <c r="C9" t="str">
-        <v>女</v>
-      </c>
-      <c r="D9" t="str">
-        <v>111111111111111118</v>
-      </c>
-      <c r="E9" t="str">
-        <v>11111111118</v>
-      </c>
-      <c r="F9" t="str">
-        <v>茱萸</v>
-      </c>
-      <c r="G9" t="str">
-        <v>在职</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>009</v>
-      </c>
-      <c r="B10" t="str">
-        <v>紫萍</v>
-      </c>
-      <c r="C10" t="str">
-        <v>男</v>
-      </c>
-      <c r="D10" t="str">
-        <v>111111111111111119</v>
-      </c>
-      <c r="E10" t="str">
-        <v>11111111119</v>
-      </c>
-      <c r="F10" t="str">
-        <v>山苍</v>
-      </c>
-      <c r="G10" t="str">
-        <v>在职</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>010</v>
-      </c>
-      <c r="B11" t="str">
-        <v>绥草</v>
-      </c>
-      <c r="C11" t="str">
-        <v>女</v>
-      </c>
-      <c r="D11" t="str">
-        <v>111111111111111120</v>
-      </c>
-      <c r="E11" t="str">
-        <v>11111111120</v>
-      </c>
-      <c r="F11" t="str">
-        <v>芜荑</v>
-      </c>
-      <c r="G11" t="str">
-        <v>在职</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>011</v>
-      </c>
-      <c r="B12" t="str">
-        <v>续断</v>
-      </c>
-      <c r="C12" t="str">
-        <v>男</v>
-      </c>
-      <c r="D12" t="str">
-        <v>111111111111111121</v>
-      </c>
-      <c r="E12" t="str">
-        <v>11111111121</v>
-      </c>
-      <c r="F12" t="str">
-        <v>假苏</v>
-      </c>
-      <c r="G12" t="str">
-        <v>在职</v>
+        <v>居住地</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/assets/excel/员工表.xlsx
+++ b/src/assets/excel/员工表.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,30 +422,13 @@
       <c r="F2" t="str">
         <v>居住地</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>付文慧</v>
-      </c>
-      <c r="C3" t="str">
-        <v>女</v>
-      </c>
-      <c r="D3" t="str">
-        <v>410521199705086518</v>
-      </c>
-      <c r="E3" t="str">
-        <v>13140104864</v>
-      </c>
-      <c r="F3" t="str">
-        <v>居住地</v>
+      <c r="G2" t="str">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>